--- a/midor-ghg-report/dummy_data_extracted.xlsx
+++ b/midor-ghg-report/dummy_data_extracted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,6 +1333,523 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76">
+        <f>== SCOPE 1 BY GAS BREAKDOWN (ISO 14064-1 §9.3f) ===</f>
+        <v/>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Scope 1 - CO₂ emissions (tonnes of gas)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1746000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Scope 1 - CO₂ emissions (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1746000</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Scope 1 - CO₂ percentage of Scope 1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>97.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Scope 1 - CH₄ emissions (tonnes of gas)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Scope 1 - CH₄ emissions (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Scope 1 - CH₄ percentage of Scope 1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Scope 1 - N₂O emissions (tonnes of gas)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Scope 1 - N₂O emissions (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Scope 1 - N₂O percentage of Scope 1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <f>== BIOGENIC CO₂ &amp; REMOVALS (ISO 14064-1 §9.3g-i) ===</f>
+        <v/>
+      </c>
+      <c r="B87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Biogenic CO₂ emissions (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Biogenic CO₂ removals (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Direct GHG removals from sinks (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <f>== SIGNIFICANCE CRITERIA (ISO 14064-1 §9.3e) ===</f>
+        <v/>
+      </c>
+      <c r="B92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Scope 3 category threshold (% of total)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>≥1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Total emissions coverage target</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>≥95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <f>== UNCERTAINTY IMPACT (ISO 14064-1 §9.3p-q) ===</f>
+        <v/>
+      </c>
+      <c r="B96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Scope 1 uncertainty (±% at 95% CI)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>±10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Scope 2 uncertainty (±% at 95% CI)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>±5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Scope 3 Cat. 11 uncertainty (±% at 95% CI)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>±15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Overall inventory uncertainty (±% at 95% CI)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>±14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Scope 1 lower bound (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1620000</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Scope 1 upper bound (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1980000</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Scope 2 lower bound (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237500</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Scope 2 upper bound (tCO₂e)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>262500</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <f>== REPORTING METHOD CLARIFICATIONS ===</f>
+        <v/>
+      </c>
+      <c r="B106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Scope 2 reporting method</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Location-based only</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Market-based instruments used</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>GHG offsets claimed</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Carbon credits claimed</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RECs or guarantees of origin</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <f>== GWP VALUES (ISO 14064-1 §9.3t) ===</f>
+        <v/>
+      </c>
+      <c r="B113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GWP source</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>IPCC AR6 (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>GWP time horizon</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>100 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GWP - CO₂</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GWP - CH₄</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GWP - N₂O</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <f>== COMPLIANCE STATUS ===</f>
+        <v/>
+      </c>
+      <c r="B120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ISO 14064-1:2018 compliance</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Full compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GHG Protocol Corporate Standard compliance</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Full compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ISO 14069 (TR) alignment</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Third-party verification status</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Not yet verified</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Planned assurance level</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Limited or Reasonable (ISO 14064-3)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
